--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -49,10 +49,13 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>however</t>
   </si>
   <si>
     <t>broke</t>
@@ -73,6 +76,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
@@ -91,160 +97,163 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>works</t>
@@ -253,10 +262,7 @@
     <t>well</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>pan</t>
   </si>
   <si>
     <t>recommend</t>
@@ -265,79 +271,73 @@
     <t>dish</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>better</t>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>used</t>
+    <t>use</t>
   </si>
   <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -701,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>109</v>
@@ -791,16 +791,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -820,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4150943396226415</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4141414141414141</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3643410852713178</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1020,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1513513513513514</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,71 +1038,95 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.8260869565217391</v>
       </c>
       <c r="L8">
+        <v>57</v>
+      </c>
+      <c r="M8">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>156</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L9">
         <v>38</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>38</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L9">
-        <v>34</v>
-      </c>
-      <c r="M9">
-        <v>34</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7555555555555555</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7402597402597403</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6915254237288135</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L12">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="M12">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6901408450704225</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6753246753246753</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,12 +1242,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.6712328767123288</v>
@@ -1249,16 +1273,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6530612244897959</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1301,16 +1325,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6461538461538462</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>800</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>800</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1322,21 +1346,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6420545746388443</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L19">
-        <v>800</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>800</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1348,21 +1372,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>446</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1374,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1400,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>0.5964912280701754</v>
+      </c>
+      <c r="L22">
         <v>34</v>
       </c>
-      <c r="K22">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
       <c r="M22">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1426,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6274509803921569</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1452,15 +1476,15 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L24">
         <v>30</v>
@@ -1478,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L25">
         <v>37</v>
       </c>
-      <c r="K25">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L25">
-        <v>42</v>
-      </c>
       <c r="M25">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1509,16 +1533,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.609375</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1530,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5897435897435898</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1556,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5897435897435898</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1582,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1608,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.562874251497006</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1634,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5526315789473685</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1660,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L32">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M32">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1686,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5384615384615384</v>
+        <v>0.55</v>
       </c>
       <c r="L33">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1712,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5138888888888888</v>
+        <v>0.53</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1738,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4897959183673469</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1764,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4838709677419355</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1795,16 +1819,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.4819277108433735</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1816,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.4769230769230769</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1842,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.47</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1868,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.4285714285714285</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1894,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.427710843373494</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L41">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M41">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1920,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4262295081967213</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1951,16 +1975,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4210526315789473</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L43">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1972,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4197530864197531</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L44">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1998,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2024,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.3970588235294117</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2050,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.3897058823529412</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L47">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M47">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2076,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.3813229571984436</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L48">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2102,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.381294964028777</v>
+        <v>0.3891050583657588</v>
       </c>
       <c r="L49">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M49">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2128,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.3684210526315789</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2154,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.363013698630137</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L51">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2180,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>465</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.3603603603603603</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2206,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>71</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3492063492063492</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2232,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3383458646616541</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L54">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M54">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2258,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3168316831683168</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="L55">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2284,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3095238095238095</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2310,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.287037037037037</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2336,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.2822966507177033</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L58">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2362,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.2781456953642384</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L59">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M59">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2388,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.2702702702702703</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2414,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.2626480086114101</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L61">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M61">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2440,73 +2464,73 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.2589285714285715</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.2588235294117647</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2416107382550336</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L64">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M64">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2518,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2291390728476821</v>
+        <v>0.25</v>
       </c>
       <c r="L65">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2544,21 +2568,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>582</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2289002557544757</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="L66">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2570,47 +2594,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>603</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2241379310344828</v>
+        <v>0.2198675496688742</v>
       </c>
       <c r="L67">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>90</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2095238095238095</v>
+        <v>0.2186700767263427</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2622,125 +2646,125 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>83</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2065217391304348</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L69">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M69">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>292</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2018348623853211</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>87</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.1949685534591195</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L71">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>256</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1895910780669145</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L72">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M72">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>218</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.1890243902439024</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M73">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2752,21 +2776,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1822660098522167</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="L74">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M74">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2778,21 +2802,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.1807909604519774</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L75">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2804,21 +2828,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1740740740740741</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L76">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2830,21 +2854,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>223</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1644736842105263</v>
+        <v>0.1646778042959427</v>
       </c>
       <c r="L77">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M77">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2856,21 +2880,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1545454545454545</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L78">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M78">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2882,15 +2906,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1515151515151515</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L79">
         <v>25</v>
@@ -2908,21 +2932,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.1455847255369928</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="L80">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M80">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2934,21 +2958,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>358</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1411042944785276</v>
+        <v>0.15</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2960,21 +2984,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>140</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.134020618556701</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L82">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M82">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2986,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>252</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.1313868613138686</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L83">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M83">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3012,21 +3036,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1260504201680672</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L84">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M84">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3038,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.125</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L85">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M85">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3064,21 +3088,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>182</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1169354838709677</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="L86">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M86">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3090,21 +3114,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K87">
-        <v>0.09836065573770492</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L87">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M87">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3116,134 +3140,134 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K88">
-        <v>0.09558823529411764</v>
+        <v>0.08776978417266187</v>
       </c>
       <c r="L88">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M88">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>246</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K89">
-        <v>0.09260991580916744</v>
+        <v>0.08776844070961717</v>
       </c>
       <c r="L89">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M89">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N89">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K90">
-        <v>0.08920863309352518</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L90">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M90">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="N90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>633</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K91">
-        <v>0.07393715341959335</v>
+        <v>0.07129094412331406</v>
       </c>
       <c r="L91">
+        <v>37</v>
+      </c>
+      <c r="M91">
         <v>40</v>
       </c>
-      <c r="M91">
-        <v>41</v>
-      </c>
       <c r="N91">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O91">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K92">
-        <v>0.06852791878172589</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="L92">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M92">
         <v>27</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>367</v>
@@ -3251,48 +3275,48 @@
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K93">
-        <v>0.0671785028790787</v>
+        <v>0.06336805555555555</v>
       </c>
       <c r="L93">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="M93">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N93">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O93">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>486</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K94">
-        <v>0.05609756097560976</v>
+        <v>0.06295399515738499</v>
       </c>
       <c r="L94">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M94">
         <v>27</v>
       </c>
       <c r="N94">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="O94">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
@@ -3303,54 +3327,28 @@
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K95">
-        <v>0.05454545454545454</v>
+        <v>0.03815789473684211</v>
       </c>
       <c r="L95">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M95">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="N95">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O95">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K96">
-        <v>0.03425559947299078</v>
-      </c>
-      <c r="L96">
-        <v>26</v>
-      </c>
-      <c r="M96">
-        <v>34</v>
-      </c>
-      <c r="N96">
-        <v>0.76</v>
-      </c>
-      <c r="O96">
-        <v>0.24</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
